--- a/DataTable/CropTable.xlsx
+++ b/DataTable/CropTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF852FA1-A637-AD44-AF5D-36AE3709C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B3EC8287-0A82-794C-84CF-3FBBE45C295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2120" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="3960" yWindow="2700" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CropTable" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="67" uniqueCount="49">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="15" uniqueCount="12">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>seedItemID</t>
-  </si>
-  <si>
-    <t>cropItemID</t>
   </si>
   <si>
     <t>growthStep</t>
@@ -45,139 +39,41 @@
     <t>basePrice</t>
   </si>
   <si>
-    <t>nameLocalKey</t>
+    <t>int</t>
   </si>
   <si>
     <t>// desc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>고추</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>딸기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>crop_name_strawberry</t>
+    <t>배추</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>멸린</t>
+    <t>아몬드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>遊</t>
+    <t>양배추</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>crop_name_radish</t>
-  </si>
-  <si>
-    <t>臾</t>
-  </si>
-  <si>
-    <t>crop_name_carrot</t>
-  </si>
-  <si>
-    <t>밴렐</t>
-  </si>
-  <si>
-    <t>crop_name_potato</t>
-  </si>
-  <si>
-    <t>媛먯옄</t>
-  </si>
-  <si>
-    <t>crop_name_tomato</t>
-  </si>
-  <si>
-    <t>좊쭏</t>
-  </si>
-  <si>
-    <t>щ쫫</t>
-  </si>
-  <si>
-    <t>crop_name_watermelon</t>
-  </si>
-  <si>
-    <t>섎컯</t>
-  </si>
-  <si>
-    <t>crop_name_pumpkin</t>
-  </si>
-  <si>
-    <t>몃컯</t>
-  </si>
-  <si>
-    <t>crop_name_pepper</t>
-  </si>
-  <si>
-    <t>怨좎텛</t>
-  </si>
-  <si>
-    <t>crop_name_bean</t>
-  </si>
-  <si>
-    <t>肄</t>
-  </si>
-  <si>
-    <t>媛</t>
-  </si>
-  <si>
-    <t>crop_name_sweetpotato</t>
-  </si>
-  <si>
-    <t>怨좉뎄留</t>
-  </si>
-  <si>
-    <t>crop_name_beatroot</t>
-  </si>
-  <si>
-    <t>鍮꾪듃</t>
-  </si>
-  <si>
-    <t>crop_name_onion</t>
-  </si>
-  <si>
-    <t>묓뙆</t>
-  </si>
-  <si>
-    <t>crop_name_garlic</t>
-  </si>
-  <si>
-    <t>留덈뒛</t>
-  </si>
-  <si>
-    <t>寃⑥슱</t>
-  </si>
-  <si>
-    <t>crop_name_spinach</t>
-  </si>
-  <si>
-    <t>쒓툑移</t>
-  </si>
-  <si>
-    <t>crop_name_cauliflower</t>
-  </si>
-  <si>
-    <t>肄쒕━뚮씪</t>
-  </si>
-  <si>
-    <t>crop_name_cabbage</t>
-  </si>
-  <si>
-    <t>묐같異</t>
-  </si>
-  <si>
-    <t>crop_name_test_egg_crop</t>
-  </si>
-  <si>
-    <t>뚯뒪  묐Ъ</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>완두콩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -526,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -656,165 +552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -944,53 +681,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,9 +750,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 테마">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1092,7 +790,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1198,7 +896,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1340,571 +1038,154 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" thickBot="1"/>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
-        <v>100</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>101</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>107</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>108</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>109</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>112</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>113</v>
-      </c>
-      <c r="C17" s="1">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <v>114</v>
-      </c>
-      <c r="C18" s="1">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>115</v>
-      </c>
-      <c r="C19" s="1">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19" thickBot="1">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5">
-        <v>116</v>
-      </c>
-      <c r="C20" s="5">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/CropTable.xlsx
+++ b/DataTable/CropTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B3EC8287-0A82-794C-84CF-3FBBE45C295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7077D384-EC17-4B46-B587-82A43DB72D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="2700" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>

--- a/DataTable/CropTable.xlsx
+++ b/DataTable/CropTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7077D384-EC17-4B46-B587-82A43DB72D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F23568CE-0ECF-4D13-89E2-BFA6F636E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2700" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CropTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="15" uniqueCount="12">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="58" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -46,35 +46,158 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>고추</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아몬드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>완두콩</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>콩콩 당근</t>
+  </si>
+  <si>
+    <t>아삭 상추</t>
+  </si>
+  <si>
+    <t>쑥쑥 강낭콩</t>
+  </si>
+  <si>
+    <t>루미넬</t>
+  </si>
+  <si>
+    <t>오색과</t>
+  </si>
+  <si>
+    <t>바위감자</t>
+  </si>
+  <si>
+    <t>덩굴옥수수</t>
+  </si>
+  <si>
+    <t>통나무 대파</t>
+  </si>
+  <si>
+    <t>대롱초</t>
+  </si>
+  <si>
+    <t>고산살이</t>
+  </si>
+  <si>
+    <t>그을린 마늘</t>
+  </si>
+  <si>
+    <t>가시 홍고추</t>
+  </si>
+  <si>
+    <t>비명 파스닙</t>
+  </si>
+  <si>
+    <t>갈퀴말이</t>
+  </si>
+  <si>
+    <t>한기초</t>
+  </si>
+  <si>
+    <t>불끈 고구마</t>
+  </si>
+  <si>
+    <t>으랏차 순무</t>
+  </si>
+  <si>
+    <t>땀방울 양파</t>
+  </si>
+  <si>
+    <t>근육산삼</t>
+  </si>
+  <si>
+    <t>아령과</t>
+  </si>
+  <si>
+    <t>상큼 라즈베리</t>
+  </si>
+  <si>
+    <t>라임 피치베리</t>
+  </si>
+  <si>
+    <t>탄산 블루베리</t>
+  </si>
+  <si>
+    <t>트리플 스위트베리</t>
+  </si>
+  <si>
+    <t>자이언트 베리</t>
+  </si>
+  <si>
+    <t>둠칫 비트</t>
+  </si>
+  <si>
+    <t>번쩍 양배추</t>
+  </si>
+  <si>
+    <t>시끌 시금치</t>
+  </si>
+  <si>
+    <t>실프모</t>
+  </si>
+  <si>
+    <t>그린벨</t>
+  </si>
+  <si>
+    <t>튀김 보리</t>
+  </si>
+  <si>
+    <t>히죽 수박</t>
+  </si>
+  <si>
+    <t>띵킹 땅콩</t>
+  </si>
+  <si>
+    <t>바람개비초</t>
+  </si>
+  <si>
+    <t>쫀득갈대</t>
+  </si>
+  <si>
+    <t>비늘 용과</t>
+  </si>
+  <si>
+    <t>카라멜론</t>
+  </si>
+  <si>
+    <t>라바허니 후르츠</t>
+  </si>
+  <si>
+    <t>펄펄씨앗</t>
+  </si>
+  <si>
+    <t>셀러맨더</t>
+  </si>
+  <si>
+    <t>푹신푹신 허브</t>
+  </si>
+  <si>
+    <t>달고나 커피콩</t>
+  </si>
+  <si>
+    <t>찻잔 열매</t>
+  </si>
+  <si>
+    <t>몰트레아</t>
+  </si>
+  <si>
+    <t>온천초</t>
+  </si>
+  <si>
+    <t>달빛 백년초</t>
+  </si>
+  <si>
+    <t>보름달 찹살꽃</t>
+  </si>
+  <si>
+    <t>월과</t>
+  </si>
+  <si>
+    <t>티나프</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +813,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1046,15 +1175,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1218,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1099,11 +1231,11 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1116,11 +1248,11 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1133,11 +1265,11 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1150,11 +1282,11 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1167,11 +1299,11 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1184,9 +1316,743 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataTable/CropTable.xlsx
+++ b/DataTable/CropTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F23568CE-0ECF-4D13-89E2-BFA6F636E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{64E500E8-0C07-4050-A792-F31BE28679C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
   <dimension ref="A2:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
